--- a/COMMENTS.xlsx
+++ b/COMMENTS.xlsx
@@ -14,63 +14,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
-  <si>
-    <t>CSITE : CHKD HSDB PT FOUND WITH PRI BUCKEYE, CHKD WEB PORTAL PT FOUND ACTIVE FOR DOS WITH ID# 910000106937, THEREFORE UPDATED INS INFO IN ESO AND CLM FILED TO INS</t>
-  </si>
-  <si>
-    <t>CSITE : WORKING ON NO MATCH, CHKD HSDB PT FOUND WITH WCOMP, CHKD BWC PORTAL PT FOUND WITH CAREWORKS AS MCO, THEREFORE UPDATED INS INFO IN ESO AND CLM FILED TO INS.</t>
-  </si>
-  <si>
-    <t>CSITE : CHKD HSDB PT FOUND WITH PRI MEDICAL MUTUAL CHKD WEB PORTAL PT FOUND ACTIVE FOR DOS, THEREFORE UPDATED INS INFO IN ESO AND CLM FILED TO INS</t>
-  </si>
-  <si>
-    <t>CSITE : CHKD HSDB PT FOUND WITH PRI CARESOURCE, CHKD WEB PORTAL PT FOUND ACTIVE FOR DOS WITH ID# 10555291300 THEREFORE UPDATED INS INFO IN ESO AND CLM FILED TO INS</t>
-  </si>
-  <si>
-    <t>NVER : WORKING ON NO MATCH, CHKD HSDB PT FOUND WITH NO INS, CHKD EBRIDGE, MCR AND MCD PT NOT FOUND, CHKD ESO NO AUTH LTR WAS SENT YET, THEREFORE, NEED TO SEND AUTH LTR.</t>
-  </si>
-  <si>
-    <t>CSITE : CHKD MCR PT FOUND WITH MOLINA DUAL PLAN AS HMO, CHKD MCD PT FOUND WITH MOLINA AS HMO, THEREFORE UPDATED INS INFO IN ESO AND CLM FILED TO INS</t>
-  </si>
-  <si>
-    <t>CSITE : CHKD HSDB PT FOUND WITH PRI BCBS, CHKD WEB PORTAL PT FOUND ACTIVE FOR DOS WITH ID# XTG690M54523, THEREFORE UPDATED INS INFO IN ESO AND CLM FILED TO INS</t>
-  </si>
-  <si>
-    <t>CSITE : CHKD HSDB PT FOUND WITH PRI MOLINA, CHKD WEB PORTAL PT FOUND ACTIVE FOR DOS, THEREFORE UPDATED INS INFO IN ESO AND CLM FILED TO INS</t>
-  </si>
-  <si>
-    <t>NVER : WORKING NO MATCH, CHKD HSDB, EBRIDGE AND MCD PT NOT FOUND, UNABLE TO CHK MCR WITHOUT SSN#, CHKD ESO NO AUTH LTR WAS SENT YET, THEREFORE NEED TO SEND AUTH LTR</t>
-  </si>
-  <si>
-    <t>CSITE : CHKD HSDB PT FOUND WITH PRI AETNA BTR HEALTH, CHKD WEB PORTAL PT FOUND ACTIVE FOR DOS, THEREFORE UPDATED INS INFO IN ESO AND CLM FILED TO INS</t>
-  </si>
-  <si>
-    <t>CSITE : CHKD HSDB PT FOUND WITH PRI MCD, CHKD WEB PORTAL PT FOUND ACTIVE FOR DOS, THEREFORE UPDATED INS INFO IN ESO AND CLM FILED TO INS</t>
-  </si>
-  <si>
-    <t>CSITE : CHKD MCR PT FOUND WITH HEALTH ALLIANCE PLAN AS HMO, CHKD WEB PORTAL PT FOUND ACTIVE FOR DOS, THEREFORE UPDATED INS INFO IN ESO AND CLM FILED TO INS</t>
-  </si>
-  <si>
-    <t>NVER : WORKING NO MATCH, CHKD HSDB, EBRIDGE, MCR AND MCD PT NOT FOUND, CHKD ESO NO AUTH LTR WAS SENT YET, THEREFORE NEED TO SEND AUTH LTR</t>
-  </si>
-  <si>
-    <t>CSITE : CHKD MCR PT FOUND PT FOUND ACTIVE FOR DOS, THEREFORE UPDATED INS INFO IN ESO AND CLM FILED TO INS</t>
-  </si>
-  <si>
-    <t>CSITE : CHKD HSDB PT FOUND WITH PRI BCBS, CHKD WEB PORTAL PT FOUND ACTIVE FOR DOS, THEREFORE UPDATED INS INFO IN ESO AND CLM FILED TO INS</t>
-  </si>
-  <si>
-    <t>CSITE : CHKD HSDB PT FOUND WITH PRI RESERVE NATIONAL INS, THEREFORE UPDATED INS INFO IN ESO AND CLM FILED TO INS</t>
-  </si>
-  <si>
-    <t>CSITE : CHKD MCD PT FOUND PT FOUND WITH CARESOURCE AS HMO, CHKD WEB PORTAL PT FOUND ACTIVE FOR DOS, THEREFORE UPDATED INS INFO IN ESO AND CLM FILED TO INS</t>
-  </si>
-  <si>
-    <t>NVER : WORKING NO MATCH, CHKD HSDB, EBRIDGE, AND MCR PT NOT FOUND, CHKD MCD PT FOUND INACTIVE, CHKD ESO NO AUTH LTR WAS SENT YET, THEREFORE NEED TO SEND AUTH LTR</t>
-  </si>
-  <si>
-    <t>CSITE : CHKD MCD PT FOUND ACTIVE WITH MCR AS PRIMARY, CHKD MCR PT FOUND PT FOUND ACTIVE FOR DOS, THEREFORE UPDATED INS INFO IN ESO AND CLM FILED TO INS</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+  <si>
+    <t>RECEIVED GOOD INSURANCE INFO FROM HOSPITAL FS WITH PRI CARESOURCE &amp; VERIFIED ADDRESS IN USPS DATA FOUND AS VALID, THEREFORE UPDATED INS INFO IN ESO AND CLM FILED TO INS</t>
+  </si>
+  <si>
+    <t>RECEIVED GOOD INSURANCE INFO FROM HOSPITAL FS WITH PRI MCR AND SEC MCD &amp; VERIFIED ADDRESS IN USPS DATA FOUND AS VALID, THEREFORE UPDATED INS INFO IN ESO AND CLM FILED TO INS</t>
+  </si>
+  <si>
+    <t>RECEIVED GOOD INSURANCE INFO FROM HOSPITAL FS WITH PRI AETNA &amp; VERIFIED ADDRESS IN USPS DATA FOUND AS VALID, THEREFORE UPDATED INS INFO IN ESO AND CLM FILED TO INS</t>
+  </si>
+  <si>
+    <t>PATIENT NOT FOUND</t>
+  </si>
+  <si>
+    <t>RECEIVED GOOD INSURANCE INFO FROM HOSPITAL FS WITH PRI BCBS &amp; VERIFIED ADDRESS IN USPS DATA FOUND AS VALID, THEREFORE UPDATED INS INFO IN ESO AND CLM FILED TO INS</t>
+  </si>
+  <si>
+    <t>RECEIVED GOOD INSURANCE INFO FROM HOSPITAL FS WITH PRI MCR AND SEC BCBS &amp; VERIFIED ADDRESS IN USPS DATA FOUND AS VALID, THEREFORE UPDATED INS INFO IN ESO AND CLM FILED TO INS</t>
+  </si>
+  <si>
+    <t>RECEIVED GOOD INSURANCE INFO FROM HOSPITAL FS WITH PRI GOLDEN RULE &amp; VERIFIED ADDRESS IN USPS DATA FOUND AS VALID, THEREFORE UPDATED INS INFO IN ESO AND CLM FILED TO INS</t>
+  </si>
+  <si>
+    <t>RECEIVED GOOD INSURANCE INFO FROM HOSPITAL FS WITH PRI MEDICAL MUTUAL &amp; VERIFIED ADDRESS IN USPS DATA FOUND AS VALID, THEREFORE UPDATED INS INFO IN ESO AND CLM FILED TO INS</t>
+  </si>
+  <si>
+    <t>RECEIVED GOOD INSURANCE INFO FROM HOSPITAL FS WITH PRI MERIDIAN HEALTH &amp; VERIFIED ADDRESS IN USPS DATA FOUND AS VALID, THEREFORE UPDATED INS INFO IN ESO AND CLM FILED TO INS</t>
+  </si>
+  <si>
+    <t>RECEIVED GOOD INSURANCE INFO FROM HOSPITAL FS WITH PRI TRICARE AND SEC MCD &amp; VERIFIED ADDRESS IN USPS DATA FOUND AS VALID, THEREFORE UPDATED INS INFO IN ESO AND CLM FILED TO INS</t>
+  </si>
+  <si>
+    <t>RECEIVED PT DEMOGRAPHIC INFO FROM HOSPITAL FS CROSS CHECKING SOFTWARE FOUND AS THE SAME PT NAME, DOB, SSN#, PH# AND INSURANCE INFO, VERIFIED THE ADDRESS IN USPS DATA FOUND AS VALID.</t>
+  </si>
+  <si>
+    <t>RECEIVED GOOD INSURANCE INFO FROM HOSPITAL FS WITH PRI MOLINA &amp; VERIFIED ADDRESS IN USPS DATA FOUND AS VALID, THEREFORE UPDATED INS INFO IN ESO AND CLM FILED TO INS</t>
+  </si>
+  <si>
+    <t>RECEIVED GOOD INSURANCE INFO FROM HOSPITAL FS WITH PRI BUCKEYE &amp; VERIFIED ADDRESS IN USPS DATA FOUND AS VALID, THEREFORE UPDATED INS INFO IN ESO AND CLM FILED TO INS</t>
+  </si>
+  <si>
+    <t>RECEIVED PT DEMOGRAPHIC INFO FROM HOSPITAL FS CROSS CHECKING SOFTWARE FOUND AS THE SAME PT NAME, DOB, SSN#, PH# AND VERIFIED THE ADDRESS IN USPS DATA FOUND AS VALID. INSURANCE INFORMATION FOUND AS SELFPAY.</t>
   </si>
 </sst>
 </file>
@@ -412,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,17 +415,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
@@ -460,32 +445,32 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
@@ -495,82 +480,37 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
